--- a/CalderonJ/ConjuntoDatosCalderon/Ejercicio de datos Visiones.xlsx
+++ b/CalderonJ/ConjuntoDatosCalderon/Ejercicio de datos Visiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EB29B3-5741-423F-9F08-C709E36212FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7EEB00-50E6-4D69-80F5-491772B45DD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{682C4D60-CF96-4193-B66C-BF35ED508914}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="146">
   <si>
     <t>ID</t>
   </si>
@@ -254,9 +254,6 @@
     <t>Intimidad</t>
   </si>
   <si>
-    <t>Milton Läufer</t>
-  </si>
-  <si>
     <t>Silencios</t>
   </si>
   <si>
@@ -302,9 +299,6 @@
     <t>Karen Villeda y Denise Audirac</t>
   </si>
   <si>
-    <t>Poesía interactiva, Poesía no creativa,Poesía en Twitter</t>
-  </si>
-  <si>
     <t>Carlos Germán Belli</t>
   </si>
   <si>
@@ -396,6 +390,111 @@
   </si>
   <si>
     <t>1960-1962</t>
+  </si>
+  <si>
+    <t>Texto</t>
+  </si>
+  <si>
+    <t>Texto, Imagen, Tipografía</t>
+  </si>
+  <si>
+    <t>Texto, Tipografía, Movimiento</t>
+  </si>
+  <si>
+    <t>Texto, Imagen, Movimiento</t>
+  </si>
+  <si>
+    <t>Material estético</t>
+  </si>
+  <si>
+    <t>Texto, Imagen, Video</t>
+  </si>
+  <si>
+    <t>Texto, Tipografía, Imagen, Sonido, Movimiento</t>
+  </si>
+  <si>
+    <t>Texto, Imagen, Sonido, Video</t>
+  </si>
+  <si>
+    <t>Texto, Texto apropiado</t>
+  </si>
+  <si>
+    <t>Libro impreso</t>
+  </si>
+  <si>
+    <t>CD-ROM</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Medio de publicación</t>
+  </si>
+  <si>
+    <t>VHS</t>
+  </si>
+  <si>
+    <t>Texto, Texto apropiado, Imagen, Entorno de videojuego, Tipografía, Sonido, Movimiento</t>
+  </si>
+  <si>
+    <t>Tarjetas perforadas IBM</t>
+  </si>
+  <si>
+    <t>Texto, Tipografía</t>
+  </si>
+  <si>
+    <t>Texto, Movimiento, Video, Tipografía</t>
+  </si>
+  <si>
+    <t>Texto, Imagen, Movimiento, Entorno de videojuego, Texto apropiado</t>
+  </si>
+  <si>
+    <t>Imagen, Texto apropiado, Datos externos, Gráfico</t>
+  </si>
+  <si>
+    <t>Texto, Datos externos, Sonido, Imagen, Texto apropiado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texto, Imagen, Movimiento </t>
+  </si>
+  <si>
+    <t>Datos externos, texto apropiado</t>
+  </si>
+  <si>
+    <t>Texto apropiado</t>
+  </si>
+  <si>
+    <t>Poesía interactiva, Poesía no creativa</t>
+  </si>
+  <si>
+    <t>Texto apropiado, Datos externos</t>
+  </si>
+  <si>
+    <t>Texto apropiado, Movimiento, Tipografía</t>
+  </si>
+  <si>
+    <t>Imagen, Texto, Tipografía, Movimiento, Texto apropiado</t>
+  </si>
+  <si>
+    <t>Texto, Imagen</t>
+  </si>
+  <si>
+    <t>El ojo y la mano</t>
+  </si>
+  <si>
+    <t>Texto, Texto no verbal, Datos externos</t>
+  </si>
+  <si>
+    <t>Texto, Texto no verbal, Tipografía, Movimiento, Datos externos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texto apropiado, Movimiento </t>
+  </si>
+  <si>
+    <t>Texto apropiado, Texto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -447,7 +546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -481,37 +580,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -520,6 +636,44 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1F21A0-79A7-44AC-91A7-BB17BF2C3BE3}">
-  <dimension ref="B2:J48"/>
+  <dimension ref="B2:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,21 +999,26 @@
     <col min="3" max="3" width="21.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="80.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="12" max="12" width="80.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C2" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="C2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,891 +1040,1070 @@
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+    </row>
+    <row r="5" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>83</v>
+      <c r="C5" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="L5" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="16">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1998</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="16">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1999</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="16">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="H8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1998</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="5" t="s">
+    </row>
+    <row r="9" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="16">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2010</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1999</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="10">
-        <v>2010</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
+    </row>
+    <row r="10" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="16">
         <v>6</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>68</v>
+      <c r="C10" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="12">
         <v>2005</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="8" t="s">
+    </row>
+    <row r="11" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="16">
+        <v>7</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="14">
+        <v>2016</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" s="13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2016</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
+      <c r="L11" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="16">
         <v>8</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="3" t="s">
+    </row>
+    <row r="13" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="16">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="14">
+        <v>2011</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="16">
+        <v>10</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="14">
+        <v>2001</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2011</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="L14" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="16">
         <v>11</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2001</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>11</v>
-      </c>
       <c r="C15" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="12">
         <v>2018</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="H15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
+    </row>
+    <row r="16" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="16">
         <v>12</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1966</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="10">
-        <v>1966</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
+    </row>
+    <row r="17" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="16">
         <v>13</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="12">
         <v>2015</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="H17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
+    </row>
+    <row r="18" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="16">
         <v>14</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="12">
         <v>2005</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="3" t="s">
+    </row>
+    <row r="19" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="16">
+        <v>15</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="14">
+        <v>2004</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="16">
+        <v>16</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="14">
+        <v>2007</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="16">
+        <v>17</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="14">
+        <v>1993</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="16">
+        <v>18</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="14">
+        <v>1982</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="16">
+        <v>19</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="12">
+        <v>2016</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
+      <c r="L23" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="16">
+        <v>20</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="16">
+        <v>21</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="B26" s="16">
+        <v>22</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="12">
+        <v>2014</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="16">
+        <v>23</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2004</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F27" s="12">
+        <v>2003</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="H27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="16">
+        <v>24</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="12">
+        <v>2001</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
-        <v>16</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="4">
-        <v>2007</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1993</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <v>18</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1982</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
-        <v>19</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="10">
-        <v>2016</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
-        <v>20</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
-        <v>21</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="3" t="s">
+    </row>
+    <row r="29" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="16">
         <v>25</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
-        <v>22</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="10">
-        <v>2014</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <v>23</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="10">
-        <v>2001</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
-        <v>24</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="10">
-        <v>2001</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="2">
-        <v>25</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>70</v>
+      <c r="C29" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="12">
         <v>2014</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="8" t="s">
+    </row>
+    <row r="30" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="16">
+        <v>26</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="12">
+        <v>2012</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="2">
-        <v>26</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="10">
-        <v>2012</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="I30" s="5" t="s">
+      <c r="L30" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J30" s="3" t="s">
+    </row>
+    <row r="31" spans="2:12" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="16">
+        <v>27</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K31" s="13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="2">
-        <v>27</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="5" t="s">
+      <c r="L31" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="2">
+    </row>
+    <row r="32" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="16">
         <v>28</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="12">
         <v>2005</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="15"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="15"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="15"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="15"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="15"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="15"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="15"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="5"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H33" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="7"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="4"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="7"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="4"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="7"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="4"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="7"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="4"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="7"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="4"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="7"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="4"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B48" s="7"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="4"/>
+      <c r="L48" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
